--- a/data.xlsx
+++ b/data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://khatamacir-my.sharepoint.com/personal/m_mir_khatam_ac_ir/Documents/Heidari Data/V1/DATA/Datasets/Econ/IRAN/Macro/Risk-Free Rate/Risk-Free Rate-Monthly/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_05F1E69F011AD9C209A434914C5ED87656CD4425" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9FE8D3F-075C-DD47-AE6E-EC18333F6428}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -25,6 +19,9 @@
     <t>JMonth</t>
   </si>
   <si>
+    <t>RiskFree-Rate-APR</t>
+  </si>
+  <si>
     <t>1399-04</t>
   </si>
   <si>
@@ -446,16 +443,13 @@
   </si>
   <si>
     <t>1387-08</t>
-  </si>
-  <si>
-    <t>RiskFreeRateAPR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,7 +460,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -487,46 +484,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pandas" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -814,1157 +799,1150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81">
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82">
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86">
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87">
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88">
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89">
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90">
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92">
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93">
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94">
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95">
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96">
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97">
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98">
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99">
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100">
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101">
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102">
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103">
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104">
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105">
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106">
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107">
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108">
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109">
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110">
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111">
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112">
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113">
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114">
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115">
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116">
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117">
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118">
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119">
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120">
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121">
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122">
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123">
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124">
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125">
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126">
         <v>14.5</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127">
         <v>14.5</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128">
         <v>14.5</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129">
         <v>14.5</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130">
         <v>14.5</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131">
         <v>14.5</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132">
         <v>14.5</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133">
         <v>14.5</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134">
         <v>14.5</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135">
         <v>14.5</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136">
         <v>14.5</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137">
         <v>14.5</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138">
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139">
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140">
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141">
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>